--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\開発演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{6DAA9ACD-2517-400B-982D-5FDADB133ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403FF9DF-2B07-42D5-8998-CDC539C4BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 月" sheetId="14" r:id="rId1"/>
@@ -855,6 +855,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -867,12 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1377,20 +1377,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="27" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -1673,13 +1673,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1687,11 +1687,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1769,12 +1769,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2026,23 +2026,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2101,12 +2101,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2358,23 +2358,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2433,12 +2433,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2690,23 +2690,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2766,12 +2766,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3033,13 +3033,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3047,11 +3047,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3111,12 +3111,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3368,23 +3368,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3444,12 +3444,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3701,23 +3701,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3777,12 +3777,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4034,23 +4034,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4097,7 +4097,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4112,12 +4112,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4240,7 +4240,7 @@
       <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -4371,7 +4371,7 @@
       <c r="C12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
@@ -4391,23 +4391,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4467,12 +4467,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4724,23 +4724,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4800,12 +4800,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5057,23 +5057,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5133,12 +5133,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="30" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5390,23 +5390,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403FF9DF-2B07-42D5-8998-CDC539C4BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1402048-1987-406E-9D1B-7A77F894E8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 月" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="ColumnTitleRegion1..H12.3">'3 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion1..H12.4">'4 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion1..H12.5">'5 月'!$B$2</definedName>
-    <definedName name="ColumnTitleRegion1..H12.6">'6 月'!$B$2</definedName>
+    <definedName name="ColumnTitleRegion1..H12.6">'6 月'!$C$2</definedName>
     <definedName name="ColumnTitleRegion1..H12.7">'7 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion1..H12.8">'8 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion1..H12.9">'9 月'!$B$2</definedName>
@@ -48,7 +48,7 @@
     <definedName name="ColumnTitleRegion2..C14.3">'3 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C14.4">'4 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C14.5">'5 月'!$B$2</definedName>
-    <definedName name="ColumnTitleRegion2..C14.6">'6 月'!$B$2</definedName>
+    <definedName name="ColumnTitleRegion2..C14.6">'6 月'!$C$2</definedName>
     <definedName name="ColumnTitleRegion2..C14.7">'7 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C14.8">'8 月'!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C14.9">'9 月'!$B$2</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>メモ</t>
   </si>
@@ -169,6 +169,51 @@
     <t>要件定義</t>
     <rPh sb="0" eb="4">
       <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>目標のスケジュール</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>実際に行った作業</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>外部設計　画面設計（14時？）→DB（少し入りたい）→詳細の設計</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンセッケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -588,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -715,6 +760,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,7 +849,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -855,9 +920,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -873,6 +935,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1377,20 +1460,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="28" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -1673,13 +1756,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1687,11 +1770,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1769,12 +1852,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2026,23 +2109,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2101,12 +2184,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2358,23 +2441,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2433,12 +2516,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2690,23 +2773,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2766,12 +2849,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3033,13 +3116,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3047,11 +3130,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3111,12 +3194,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3368,23 +3451,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3444,12 +3527,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3701,23 +3784,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3777,12 +3860,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4034,23 +4117,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4094,347 +4177,369 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="12.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="12"/>
+      <c r="C1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" s="23" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="9" t="str">
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="9" t="str">
         <f>IF(週の始まり="日曜日", "日曜日","月曜日")</f>
         <v>日曜日</v>
       </c>
-      <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:H2" ca="1" si="0">UPPER(TEXT(C3,"aaaa"))</f>
+      <c r="D2" s="9" t="str">
+        <f t="shared" ref="D2:I2" ca="1" si="0">UPPER(TEXT(D3,"aaaa"))</f>
         <v>月曜日</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="E2" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>火曜日</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="F2" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>水曜日</v>
       </c>
-      <c r="F2" s="9" t="str">
+      <c r="G2" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>木曜日</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="H2" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>金曜日</v>
       </c>
-      <c r="H2" s="9" t="str">
+      <c r="I2" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>土曜日</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20">
-        <f t="array" aca="1" ref="B3:H3" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+1</f>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="20">
+        <f t="array" aca="1" ref="C3:I3" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+1</f>
         <v>44346</v>
       </c>
-      <c r="C3" s="20">
+      <c r="D3" s="20">
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D3" s="20">
+      <c r="E3" s="20">
         <f ca="1"/>
         <v>44348</v>
       </c>
-      <c r="E3" s="20">
+      <c r="F3" s="20">
         <f ca="1"/>
         <v>44349</v>
       </c>
-      <c r="F3" s="20">
+      <c r="G3" s="20">
         <f ca="1"/>
         <v>44350</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H3" s="20">
         <f ca="1"/>
         <v>44351</v>
       </c>
-      <c r="H3" s="20">
+      <c r="I3" s="20">
         <f ca="1"/>
         <v>44352</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="21">
-        <f t="array" aca="1" ref="B5:H5" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+8</f>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32">
+        <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+8</f>
         <v>44353</v>
       </c>
-      <c r="C5" s="21">
+      <c r="D5" s="32">
         <f ca="1"/>
         <v>44354</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E5" s="32">
         <f ca="1"/>
         <v>44355</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="32">
         <f ca="1"/>
         <v>44356</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="32">
         <f ca="1"/>
         <v>44357</v>
       </c>
-      <c r="G5" s="21">
+      <c r="H5" s="32">
         <f ca="1"/>
         <v>44358</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="32">
         <f ca="1"/>
         <v>44359</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24" t="s">
+    <row r="6" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20">
-        <f t="array" aca="1" ref="B7:H7" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="20">
+        <f t="array" aca="1" ref="C8:I8" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
         <v>44360</v>
       </c>
-      <c r="C7" s="20">
+      <c r="D8" s="20">
         <f ca="1"/>
         <v>44361</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E8" s="20">
         <f ca="1"/>
         <v>44362</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F8" s="20">
         <f ca="1"/>
         <v>44363</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G8" s="20">
         <f ca="1"/>
         <v>44364</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H8" s="20">
         <f ca="1"/>
         <v>44365</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I8" s="20">
         <f ca="1"/>
         <v>44366</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="21">
-        <f t="array" aca="1" ref="B9:H9" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
+    <row r="9" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="21">
+        <f t="array" aca="1" ref="C10:I10" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
         <v>44367</v>
       </c>
-      <c r="C9" s="21">
+      <c r="D10" s="21">
         <f ca="1"/>
         <v>44368</v>
       </c>
-      <c r="D9" s="21">
+      <c r="E10" s="21">
         <f ca="1"/>
         <v>44369</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F10" s="21">
         <f ca="1"/>
         <v>44370</v>
       </c>
-      <c r="F9" s="21">
+      <c r="G10" s="21">
         <f ca="1"/>
         <v>44371</v>
       </c>
-      <c r="G9" s="21">
+      <c r="H10" s="21">
         <f ca="1"/>
         <v>44372</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I10" s="21">
         <f ca="1"/>
         <v>44373</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+    <row r="11" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="20">
-        <f t="array" aca="1" ref="B11:H11" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="20">
+        <f t="array" aca="1" ref="C12:I12" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
         <v>44374</v>
       </c>
-      <c r="C11" s="20">
+      <c r="D12" s="20">
         <f ca="1"/>
         <v>44375</v>
       </c>
-      <c r="D11" s="20">
+      <c r="E12" s="20">
         <f ca="1"/>
         <v>44376</v>
       </c>
-      <c r="E11" s="20">
+      <c r="F12" s="20">
         <f ca="1"/>
         <v>44377</v>
       </c>
-      <c r="F11" s="20">
+      <c r="G12" s="20">
         <f ca="1"/>
         <v>44378</v>
       </c>
-      <c r="G11" s="20">
+      <c r="H12" s="20">
         <f ca="1"/>
         <v>44379</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I12" s="20">
         <f ca="1"/>
         <v>44380</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+    <row r="13" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="21">
-        <f t="array" aca="1" ref="B13:C13" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="21">
+        <f t="array" aca="1" ref="C14:D14" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
         <v>44381</v>
       </c>
-      <c r="C13" s="21">
+      <c r="D14" s="21">
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:H14"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="B11:H11 B13:C13">
+  <conditionalFormatting sqref="C12:I12 C14:D14">
     <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND(DAY(B11)&gt;=1,DAY(B11)&lt;=15)</formula>
+      <formula>AND(DAY(C12)&gt;=1,DAY(C12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:G3">
+  <conditionalFormatting sqref="C3:H3">
     <cfRule type="expression" dxfId="12" priority="1">
-      <formula>DAY(B3)&gt;8</formula>
+      <formula>DAY(C3)&gt;8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="曜日は自動的に決定されます" sqref="C2:H2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 5、7、9、11、13 には、週のカレンダー日が含まれます。このセルの数字が 1 でない場合は、前の月の日付ということです。セル E13 にメモを入力します" sqref="B3" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 月の月間カレンダー" sqref="A1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="D13:D14" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="E13:H14" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 6、8、10、12、14 は、上のセルのカレンダー日に関連する毎日のメモを入力するためのセルです" sqref="B4" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルの年は、1 月のワークシートに入力された年に基づいて自動的に更新されます。下のカレンダーには、前の月と次の月の日付が薄い色のフォントで表示されます。" sqref="B1:D1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行には、このカレンダーの曜日名が含まれます。このセルには、週の最初の曜日が含まれます。最初の曜日を変更するには、1 月のワークシートのセル K3 で新しい曜日を選びます" sqref="B2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="曜日は自動的に決定されます" sqref="D2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 5、7、9、11、13 には、週のカレンダー日が含まれます。このセルの数字が 1 でない場合は、前の月の日付ということです。セル E13 にメモを入力します" sqref="C3" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 月の月間カレンダー" sqref="B1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E14:E15" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F14:I15" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 6、8、10、12、14 は、上のセルのカレンダー日に関連する毎日のメモを入力するためのセルです" sqref="C4" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルの年は、1 月のワークシートに入力された年に基づいて自動的に更新されます。下のカレンダーには、前の月と次の月の日付が薄い色のフォントで表示されます。" sqref="C1:E1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行には、このカレンダーの曜日名が含まれます。このセルには、週の最初の曜日が含まれます。最初の曜日を変更するには、1 月のワークシートのセル K3 で新しい曜日を選びます" sqref="C2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4467,12 +4572,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4724,23 +4829,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4800,12 +4905,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5057,23 +5162,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5133,12 +5238,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="30" t="str">
+      <c r="B1" s="29" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5390,23 +5495,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1402048-1987-406E-9D1B-7A77F894E8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B2359-1BE7-44B9-9D41-52F0ACDDE0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4180,7 +4180,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B2359-1BE7-44B9-9D41-52F0ACDDE0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F53E58-3AB3-472F-9709-2CBCC55FF042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>メモ</t>
   </si>
@@ -140,22 +140,6 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>外部設計終了（レビューの後の訂正までやる）</t>
-    <rPh sb="0" eb="4">
-      <t>ガイブセッケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイセイ</t>
-    </rPh>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
     <t>チーム立ち上げ</t>
     <rPh sb="3" eb="4">
       <t>タ</t>
@@ -214,6 +198,47 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>外部設計　画面設計（8割完成）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>外部設計終了　DB定義書（レビューの後の訂正までやる）</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイセイ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -923,19 +948,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="15" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -956,6 +968,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="15" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1460,20 +1485,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="35" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -1756,13 +1781,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1770,11 +1795,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1852,12 +1877,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2109,23 +2134,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2184,12 +2209,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2441,23 +2466,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2516,12 +2541,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2773,23 +2798,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2849,12 +2874,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3116,13 +3141,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3130,11 +3155,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3194,12 +3219,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3451,23 +3476,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3527,12 +3552,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3784,23 +3809,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3860,12 +3885,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4117,23 +4142,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4179,8 +4204,8 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4197,12 +4222,12 @@
     <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="29" t="str">
+      <c r="C1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4275,13 +4300,13 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>5</v>
@@ -4289,68 +4314,70 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27">
         <f t="array" aca="1" ref="C5:I5" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+8</f>
         <v>44353</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <f ca="1"/>
         <v>44354</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <f ca="1"/>
         <v>44355</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="27">
         <f ca="1"/>
         <v>44356</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="27">
         <f ca="1"/>
         <v>44357</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="27">
         <f ca="1"/>
         <v>44358</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="27">
         <f ca="1"/>
         <v>44359</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -4496,23 +4523,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4572,12 +4599,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4829,23 +4856,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4905,12 +4932,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5162,23 +5189,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5238,12 +5265,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="29" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5495,23 +5522,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F53E58-3AB3-472F-9709-2CBCC55FF042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D179CCF8-E9CF-4722-8AEA-EFD6FEB34D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>メモ</t>
   </si>
@@ -95,13 +95,6 @@
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>開発</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -224,21 +217,83 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>外部設計終了　DB定義書（レビューの後の訂正までやる）</t>
+    <t>外部設計　画面設計のレビューをもらった後、指摘されたポイントの手直し</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テナオ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>座学（プログラミング）　外部設計終了　DB定義書（レビューの後の訂正までやる）</t>
+    <rPh sb="0" eb="2">
+      <t>ザガク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
       <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="9" eb="12">
+    <rPh sb="21" eb="24">
       <t>テイギショ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="30" eb="31">
       <t>アト</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="32" eb="34">
       <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>11時までに前日の修正点を直す　14時までにDB定義書を完成させる　そのあと、機能詳細を2人ずつ分担して書く</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シュウセイテン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>キノウショウサイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ブンタン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -4204,7 +4259,7 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4300,13 +4355,13 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>5</v>
@@ -4345,20 +4400,20 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="30"/>
       <c r="D6" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>6</v>
+      <c r="F6" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -4366,14 +4421,16 @@
     </row>
     <row r="7" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="31"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -4460,7 +4517,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -4501,13 +4558,13 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D179CCF8-E9CF-4722-8AEA-EFD6FEB34D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363FBB9-4025-49E7-84F2-0636213D990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>メモ</t>
   </si>
@@ -150,13 +150,6 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>目標のスケジュール</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
     <t>実際に行った作業</t>
     <rPh sb="0" eb="2">
       <t>ジッサイ</t>
@@ -294,6 +287,81 @@
     </rPh>
     <rPh sb="52" eb="53">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>機能設計の確認（30分）/ 項目定義（1時間）/ ファイル一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>コウモクテイギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>その日の朝に立てた目標のスケジュール</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>当初のスケジュールを</t>
+    <rPh sb="0" eb="2">
+      <t>トウショ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>開発に入る</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>外部設計・内部設計</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ナイブセッケイ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -929,7 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1036,6 +1104,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4257,9 +4328,9 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4400,214 +4471,240 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>13</v>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="20">
-        <f t="array" aca="1" ref="C8:I8" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
+    </row>
+    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="20">
+        <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
         <v>44360</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D9" s="20">
         <f ca="1"/>
         <v>44361</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="20">
         <f ca="1"/>
         <v>44362</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="20">
         <f ca="1"/>
         <v>44363</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G9" s="20">
         <f ca="1"/>
         <v>44364</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H9" s="20">
         <f ca="1"/>
         <v>44365</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I9" s="20">
         <f ca="1"/>
         <v>44366</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
-      <c r="C10" s="21">
-        <f t="array" aca="1" ref="C10:I10" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="21">
+        <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
         <v>44367</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <f ca="1"/>
         <v>44368</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E11" s="21">
         <f ca="1"/>
         <v>44369</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F11" s="21">
         <f ca="1"/>
         <v>44370</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G11" s="21">
         <f ca="1"/>
         <v>44371</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H11" s="21">
         <f ca="1"/>
         <v>44372</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I11" s="21">
         <f ca="1"/>
         <v>44373</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+    <row r="12" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="20">
-        <f t="array" aca="1" ref="C12:I12" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="20">
+        <f t="array" aca="1" ref="C13:I13" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
         <v>44374</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="20">
         <f ca="1"/>
         <v>44375</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E13" s="20">
         <f ca="1"/>
         <v>44376</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="20">
         <f ca="1"/>
         <v>44377</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="20">
         <f ca="1"/>
         <v>44378</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H13" s="20">
         <f ca="1"/>
         <v>44379</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I13" s="20">
         <f ca="1"/>
         <v>44380</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+    <row r="14" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="21">
-        <f t="array" aca="1" ref="C14:D14" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="21">
+        <f t="array" aca="1" ref="C15:D15" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
         <v>44381</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D15" s="21">
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
+    <row r="16" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:I16"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="C12:I12 C14:D14">
+  <conditionalFormatting sqref="C13:I13 C15:D15">
     <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND(DAY(C12)&gt;=1,DAY(C12)&lt;=15)</formula>
+      <formula>AND(DAY(C13)&gt;=1,DAY(C13)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H3">
@@ -4619,8 +4716,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="曜日は自動的に決定されます" sqref="D2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 5、7、9、11、13 には、週のカレンダー日が含まれます。このセルの数字が 1 でない場合は、前の月の日付ということです。セル E13 にメモを入力します" sqref="C3" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 月の月間カレンダー" sqref="B1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E14:E15" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F14:I15" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E15:E16" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F15:I16" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 6、8、10、12、14 は、上のセルのカレンダー日に関連する毎日のメモを入力するためのセルです" sqref="C4" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルの年は、1 月のワークシートに入力された年に基づいて自動的に更新されます。下のカレンダーには、前の月と次の月の日付が薄い色のフォントで表示されます。" sqref="C1:E1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行には、このカレンダーの曜日名が含まれます。このセルには、週の最初の曜日が含まれます。最初の曜日を変更するには、1 月のワークシートのセル K3 で新しい曜日を選びます" sqref="C2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363FBB9-4025-49E7-84F2-0636213D990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA547D-B263-499C-BB1A-AB8A281002D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>メモ</t>
   </si>
@@ -362,6 +362,42 @@
     </rPh>
     <rPh sb="5" eb="9">
       <t>ナイブセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>機能設計の確認（午前中）/ 項目定義（午後）/ ファイル一覧（1時間強）</t>
+    <rPh sb="0" eb="4">
+      <t>キノウセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>コウモクテイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ジカンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>ファイル一覧（午前中）
+プログラミング（午後）</t>
+    <rPh sb="7" eb="10">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゴゴ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -1092,6 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1104,9 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1611,20 +1647,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="35" t="str">
+      <c r="B1" s="36" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="34"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -1907,13 +1943,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1921,11 +1957,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2003,12 +2039,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2260,23 +2296,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2335,12 +2371,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2592,23 +2628,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2667,12 +2703,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2924,23 +2960,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3000,12 +3036,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3267,13 +3303,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3281,11 +3317,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3345,12 +3381,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3602,23 +3638,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3678,12 +3714,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3935,23 +3971,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4011,12 +4047,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4268,23 +4304,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4330,8 +4366,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4348,12 +4384,12 @@
     <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="36" t="str">
+      <c r="C1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4494,7 +4530,7 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="29"/>
@@ -4511,7 +4547,9 @@
       <c r="G7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
@@ -4529,7 +4567,9 @@
       <c r="F8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="12"/>
@@ -4677,23 +4717,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4753,12 +4793,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5010,23 +5050,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5086,12 +5126,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5343,23 +5383,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5419,12 +5459,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="37" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5676,23 +5716,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA547D-B263-499C-BB1A-AB8A281002D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDB9FB9-E454-41B2-8FEE-C663EE510EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>メモ</t>
   </si>
@@ -398,6 +398,78 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>午後からログイン周り　ログイン画面はほぼ完成</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>開発</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>開発（基本的な機能を終わらせる）</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>ログイン周りを一通り完成
+jspのひな型を完成させる</t>
+    <rPh sb="19" eb="20">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>jsp11/14
+ログインエラー処理以外ほぼ完成</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>午前中：jspのひな型完成　ログイン周り完成
+午後：サーブレットを分担</t>
+    <rPh sb="0" eb="3">
+      <t>ゴゼンチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンタン</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -1033,7 +1105,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1143,6 +1215,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4364,10 +4448,10 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4570,181 +4654,231 @@
       <c r="G8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" s="30"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="20">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="41">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
         <v>44360</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="41">
         <f ca="1"/>
         <v>44361</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="41">
         <f ca="1"/>
         <v>44362</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="41">
         <f ca="1"/>
         <v>44363</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="41">
         <f ca="1"/>
         <v>44364</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="41">
         <f ca="1"/>
         <v>44365</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="41">
         <f ca="1"/>
         <v>44366</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="21">
-        <f t="array" aca="1" ref="C11:I11" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
-        <v>44367</v>
-      </c>
-      <c r="D11" s="21">
-        <f ca="1"/>
-        <v>44368</v>
-      </c>
-      <c r="E11" s="21">
-        <f ca="1"/>
-        <v>44369</v>
-      </c>
-      <c r="F11" s="21">
-        <f ca="1"/>
-        <v>44370</v>
-      </c>
-      <c r="G11" s="21">
-        <f ca="1"/>
-        <v>44371</v>
-      </c>
-      <c r="H11" s="21">
-        <f ca="1"/>
-        <v>44372</v>
-      </c>
-      <c r="I11" s="21">
-        <f ca="1"/>
-        <v>44373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="20">
-        <f t="array" aca="1" ref="C13:I13" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
-        <v>44374</v>
-      </c>
-      <c r="D13" s="20">
-        <f ca="1"/>
-        <v>44375</v>
-      </c>
-      <c r="E13" s="20">
-        <f ca="1"/>
-        <v>44376</v>
-      </c>
-      <c r="F13" s="20">
-        <f ca="1"/>
-        <v>44377</v>
-      </c>
-      <c r="G13" s="20">
-        <f ca="1"/>
-        <v>44378</v>
-      </c>
-      <c r="H13" s="20">
-        <f ca="1"/>
-        <v>44379</v>
-      </c>
-      <c r="I13" s="20">
-        <f ca="1"/>
-        <v>44380</v>
+      <c r="C13" s="21">
+        <f t="array" aca="1" ref="C13:I13" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+22</f>
+        <v>44367</v>
+      </c>
+      <c r="D13" s="21">
+        <f ca="1"/>
+        <v>44368</v>
+      </c>
+      <c r="E13" s="21">
+        <f ca="1"/>
+        <v>44369</v>
+      </c>
+      <c r="F13" s="21">
+        <f ca="1"/>
+        <v>44370</v>
+      </c>
+      <c r="G13" s="21">
+        <f ca="1"/>
+        <v>44371</v>
+      </c>
+      <c r="H13" s="21">
+        <f ca="1"/>
+        <v>44372</v>
+      </c>
+      <c r="I13" s="21">
+        <f ca="1"/>
+        <v>44373</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="21">
-        <f t="array" aca="1" ref="C15:D15" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
-        <v>44381</v>
-      </c>
-      <c r="D15" s="21">
-        <f ca="1"/>
-        <v>44382</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="C15" s="20">
+        <f t="array" aca="1" ref="C15:I15" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
+        <v>44374</v>
+      </c>
+      <c r="D15" s="20">
+        <f ca="1"/>
+        <v>44375</v>
+      </c>
+      <c r="E15" s="20">
+        <f ca="1"/>
+        <v>44376</v>
+      </c>
+      <c r="F15" s="20">
+        <f ca="1"/>
+        <v>44377</v>
+      </c>
+      <c r="G15" s="20">
+        <f ca="1"/>
+        <v>44378</v>
+      </c>
+      <c r="H15" s="20">
+        <f ca="1"/>
+        <v>44379</v>
+      </c>
+      <c r="I15" s="20">
+        <f ca="1"/>
+        <v>44380</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="21">
+        <f t="array" aca="1" ref="C17:D17" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
+        <v>44381</v>
+      </c>
+      <c r="D17" s="21">
+        <f ca="1"/>
+        <v>44382</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:I18"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="C13:I13 C15:D15">
+  <conditionalFormatting sqref="C15:I15 C17:D17">
     <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND(DAY(C13)&gt;=1,DAY(C13)&lt;=15)</formula>
+      <formula>AND(DAY(C15)&gt;=1,DAY(C15)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H3">
@@ -4756,8 +4890,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="曜日は自動的に決定されます" sqref="D2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 5、7、9、11、13 には、週のカレンダー日が含まれます。このセルの数字が 1 でない場合は、前の月の日付ということです。セル E13 にメモを入力します" sqref="C3" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 月の月間カレンダー" sqref="B1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E15:E16" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F15:I16" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E17:E18" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F17:I18" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 6、8、10、12、14 は、上のセルのカレンダー日に関連する毎日のメモを入力するためのセルです" sqref="C4" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルの年は、1 月のワークシートに入力された年に基づいて自動的に更新されます。下のカレンダーには、前の月と次の月の日付が薄い色のフォントで表示されます。" sqref="C1:E1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行には、このカレンダーの曜日名が含まれます。このセルには、週の最初の曜日が含まれます。最初の曜日を変更するには、1 月のワークシートのセル K3 で新しい曜日を選びます" sqref="C2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDB9FB9-E454-41B2-8FEE-C663EE510EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C470A5E-72EA-44A0-A247-906A1EF5D077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>メモ</t>
   </si>
@@ -471,6 +471,28 @@
     <rPh sb="33" eb="35">
       <t>ブンタン</t>
     </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>発表資料作りたい</t>
+    <rPh sb="0" eb="4">
+      <t>ハッピョウシリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>CSS、JavaScript</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>サーブレット</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>サーブレット、JavaScript、CSS</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -1105,7 +1127,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1203,6 +1225,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1215,18 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1731,20 +1756,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="36" t="str">
+      <c r="B1" s="41" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2027,13 +2052,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2041,11 +2066,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2123,12 +2148,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2380,23 +2405,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2455,12 +2480,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2712,23 +2737,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2787,12 +2812,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3044,23 +3069,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3120,12 +3145,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3387,13 +3412,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3401,11 +3426,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3465,12 +3490,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3722,23 +3747,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3798,12 +3823,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4055,23 +4080,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4131,12 +4156,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4388,23 +4413,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4450,8 +4475,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4468,12 +4493,12 @@
     <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="37" t="str">
+      <c r="C1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4665,31 +4690,31 @@
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
-      <c r="C9" s="41">
+      <c r="C9" s="37">
         <f t="array" aca="1" ref="C9:I9" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+15</f>
         <v>44360</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="37">
         <f ca="1"/>
         <v>44361</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="37">
         <f ca="1"/>
         <v>44362</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="37">
         <f ca="1"/>
         <v>44363</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="37">
         <f ca="1"/>
         <v>44364</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="37">
         <f ca="1"/>
         <v>44365</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <f ca="1"/>
         <v>44366</v>
       </c>
@@ -4722,15 +4747,21 @@
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -4738,15 +4769,15 @@
         <v>12</v>
       </c>
       <c r="B12" s="29"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -4785,13 +4816,19 @@
     <row r="14" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,23 +4888,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4927,12 +4964,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5184,23 +5221,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5260,12 +5297,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5517,23 +5554,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5593,12 +5630,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="37" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5850,23 +5887,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C470A5E-72EA-44A0-A247-906A1EF5D077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF9CA6-DCB0-4590-A01F-75928C16C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>メモ</t>
   </si>
@@ -488,11 +488,89 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>サーブレット</t>
+    <t>サーブレット、JavaScript、CSS</t>
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>サーブレット、JavaScript、CSS</t>
+    <t>jspはひな型は完成　ログイン周りはほとんど完成</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>サーブレット
+検索結果とアップロードとノート一覧のサーブレットを完成させ動くようにする</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>アップロード機能のためのサーブレット
+お気に入り登録用のDAO
+編集画面のjsp
+マイページからのページ遷移、ログアウト
+基本的な検索機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サーブレット
+アップロード機能とダウンロード機能の完成
+編集画面画面を表示する
+お気に入り登録用のDAOを完成させる
+</t>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -1127,7 +1205,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1252,6 +1330,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4475,8 +4556,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4753,28 +4834,32 @@
       <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>35</v>
-      </c>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="E12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FF9CA6-DCB0-4590-A01F-75928C16C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762BE55-C4C9-4E88-BCB8-FE95FDE42738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <si>
     <t xml:space="preserve">サーブレット
 アップロード機能とダウンロード機能の完成
-編集画面画面を表示する
+編集画面を表示する
 お気に入り登録用のDAOを完成させる
 </t>
     <rPh sb="13" eb="15">
@@ -547,28 +547,28 @@
     <rPh sb="25" eb="27">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="28" eb="32">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="35" eb="37">
+    <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
     </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
     <rPh sb="41" eb="42">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
       <t>イ</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="43" eb="45">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="47" eb="48">
+    <rPh sb="45" eb="46">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="51" eb="53">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="28"/>
@@ -4556,7 +4556,7 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7762BE55-C4C9-4E88-BCB8-FE95FDE42738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC2A49D-2F26-4E99-922F-F352B6481F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>メモ</t>
   </si>
@@ -569,6 +569,30 @@
       <t>ヨウ</t>
     </rPh>
     <rPh sb="51" eb="53">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アップロード機能とダウンロード機能
+お気に入りボタン途中（DAOは完成）
+</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="28"/>
@@ -1318,6 +1342,9 @@
     <xf numFmtId="178" fontId="4" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1330,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1837,20 +1861,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="42" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2133,13 +2157,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2147,11 +2171,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2229,12 +2253,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2486,23 +2510,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2561,12 +2585,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2818,23 +2842,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2893,12 +2917,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3150,23 +3174,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3226,12 +3250,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3493,13 +3517,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3507,11 +3531,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3571,12 +3595,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3828,23 +3852,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3904,12 +3928,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4161,23 +4185,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4237,12 +4261,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4494,23 +4518,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4557,7 +4581,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4574,12 +4598,12 @@
     <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="42" t="str">
+      <c r="C1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4851,16 +4875,18 @@
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="38" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="12"/>
@@ -4973,23 +4999,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5049,12 +5075,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5306,23 +5332,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5382,12 +5408,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5639,23 +5665,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5715,12 +5741,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5972,23 +5998,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC2A49D-2F26-4E99-922F-F352B6481F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9032E2-4AB7-4E14-A4D3-F14781AD11E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>メモ</t>
   </si>
@@ -595,6 +595,97 @@
     <rPh sb="33" eb="35">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>JavaScriptでダイアログを付ける作業はほぼ完了（あと1つ）
+削除機能は完了。編集機能があと少し（画像ファイルの扱い）
+お気に入り一覧とマイページにお気に入りノートを表示
+お気に入りボタンの作業は5割
+検索機能はあと少し（いったん複合検索は後回し）</t>
+    <rPh sb="17" eb="18">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="118" eb="122">
+      <t>フクゴウケンサク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>蔭山さんと舟見さん：CSS
+小林：こちらもおすすめ機能
+水井さん：キーワード複数検索以外の検索機能完成　→　お気に入り数を増やすDAOのメソッド
+上甲さん：編集画面の調整
+杉森さん：ajaxの非同期処理　お気に入り登録と解除</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -1229,7 +1320,7 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1357,6 +1448,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4578,10 +4672,10 @@
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4869,7 +4963,7 @@
       </c>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
@@ -4881,13 +4975,15 @@
       <c r="E12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="38" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="35"/>
+      <c r="H12" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" s="35"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -4924,7 +5020,7 @@
         <v>44373</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
@@ -4937,96 +5033,130 @@
         <v>7</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="44" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="20">
-        <f t="array" aca="1" ref="C15:I15" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
-        <v>44374</v>
-      </c>
-      <c r="D15" s="20">
-        <f ca="1"/>
-        <v>44375</v>
-      </c>
-      <c r="E15" s="20">
-        <f ca="1"/>
-        <v>44376</v>
-      </c>
-      <c r="F15" s="20">
-        <f ca="1"/>
-        <v>44377</v>
-      </c>
-      <c r="G15" s="20">
-        <f ca="1"/>
-        <v>44378</v>
-      </c>
-      <c r="H15" s="20">
-        <f ca="1"/>
-        <v>44379</v>
-      </c>
-      <c r="I15" s="20">
-        <f ca="1"/>
-        <v>44380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+    <row r="15" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
-      <c r="C17" s="21">
-        <f t="array" aca="1" ref="C17:D17" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
-        <v>44381</v>
-      </c>
-      <c r="D17" s="21">
-        <f ca="1"/>
-        <v>44382</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="C17" s="20">
+        <f t="array" aca="1" ref="C17:I17" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+29</f>
+        <v>44374</v>
+      </c>
+      <c r="D17" s="20">
+        <f ca="1"/>
+        <v>44375</v>
+      </c>
+      <c r="E17" s="20">
+        <f ca="1"/>
+        <v>44376</v>
+      </c>
+      <c r="F17" s="20">
+        <f ca="1"/>
+        <v>44377</v>
+      </c>
+      <c r="G17" s="20">
+        <f ca="1"/>
+        <v>44378</v>
+      </c>
+      <c r="H17" s="20">
+        <f ca="1"/>
+        <v>44379</v>
+      </c>
+      <c r="I17" s="20">
+        <f ca="1"/>
+        <v>44380</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="21">
+        <f t="array" aca="1" ref="C19:D19" ca="1">DaysAndWeeks+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(週の始まり="月曜日")+1)+36</f>
+        <v>44381</v>
+      </c>
+      <c r="D19" s="21">
+        <f ca="1"/>
+        <v>44382</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:I20"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="C15:I15 C17:D17">
+  <conditionalFormatting sqref="C17:I17 C19:D19">
     <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND(DAY(C15)&gt;=1,DAY(C15)&lt;=15)</formula>
+      <formula>AND(DAY(C17)&gt;=1,DAY(C17)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H3">
@@ -5038,8 +5168,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="曜日は自動的に決定されます" sqref="D2:I2" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 5、7、9、11、13 には、週のカレンダー日が含まれます。このセルの数字が 1 でない場合は、前の月の日付ということです。セル E13 にメモを入力します" sqref="C3" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="6 月の月間カレンダー" sqref="B1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E17:E18" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F17:I18" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="右側のセルにメモを入力します" sqref="E19:E20" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルにメモを入力します" sqref="F19:I20" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行と行 6、8、10、12、14 は、上のセルのカレンダー日に関連する毎日のメモを入力するためのセルです" sqref="C4" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="このセルの年は、1 月のワークシートに入力された年に基づいて自動的に更新されます。下のカレンダーには、前の月と次の月の日付が薄い色のフォントで表示されます。" sqref="C1:E1" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="この行には、このカレンダーの曜日名が含まれます。このセルには、週の最初の曜日が含まれます。最初の曜日を変更するには、1 月のワークシートのセル K3 で新しい曜日を選びます" sqref="C2" xr:uid="{00000000-0002-0000-0500-000007000000}"/>

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8075D223-1756-44B9-80D4-FA1BF60043E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6C3DF-3975-4EEC-9584-C276941941CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>メモ</t>
   </si>
@@ -99,13 +99,6 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>発表リハ</t>
-    <rPh sb="0" eb="2">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
     <t>テスト,　座学あり</t>
     <rPh sb="5" eb="7">
       <t>ザガク</t>
@@ -457,16 +450,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ブンタン</t>
-    </rPh>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>発表資料作りたい</t>
-    <rPh sb="0" eb="4">
-      <t>ハッピョウシリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -688,6 +671,101 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>午後に発表会リハをしたい</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハッピョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>発表資料をひとまず完成</t>
+    <rPh sb="0" eb="4">
+      <t>ハッピョウシリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>CSS：ヘッダーとフッターとマイページのレイアウトが整ってきた
+こちらもおすすめ機能：とりあえず必要なコードは書いたが、正しい動き方をしない
+検索：8割完成（細かい訂正とできたらいいねの複合検索を残すのみ）
+編集機能：完成
+お気に入りボタン：ノート詳細にajaxを適応できた</t>
+    <rPh sb="26" eb="27">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="93" eb="97">
+      <t>フクゴウケンサク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="104" eb="108">
+      <t>ヘンシュウキノウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>テキオウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>発表準備</t>
+    <rPh sb="0" eb="4">
+      <t>ハッピョウジュンビ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -1439,6 +1517,9 @@
     <xf numFmtId="178" fontId="25" fillId="6" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="11">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1451,9 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1958,20 +2036,20 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="43" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 1 月"</f>
         <v>2021 年 1 月</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="6"/>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2254,13 +2332,13 @@
         <f ca="1"/>
         <v>44228</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2268,11 +2346,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -2350,12 +2428,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 10 月"</f>
         <v>2021 年 10 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2607,23 +2685,23 @@
         <f ca="1"/>
         <v>44501</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2682,12 +2760,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 11 月"</f>
         <v>2021 年 11 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2939,23 +3017,23 @@
         <f ca="1"/>
         <v>44536</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3014,12 +3092,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 12 月"</f>
         <v>2021 年 12 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3271,23 +3349,23 @@
         <f ca="1"/>
         <v>44564</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3347,12 +3425,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 2 月"</f>
         <v>2021 年 2 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3614,13 +3692,13 @@
         <f ca="1"/>
         <v>44263</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -3628,11 +3706,11 @@
     <row r="14" spans="1:11" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3692,12 +3770,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 3 月"</f>
         <v>2021 年 3 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3949,23 +4027,23 @@
         <f ca="1"/>
         <v>44291</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4025,12 +4103,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 4 月"</f>
         <v>2021 年 4 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4282,23 +4360,23 @@
         <f ca="1"/>
         <v>44319</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4358,12 +4436,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 5 月"</f>
         <v>2021 年 5 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4615,23 +4693,23 @@
         <f ca="1"/>
         <v>44347</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4677,8 +4755,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4695,12 +4773,12 @@
     <row r="1" spans="1:12" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="43" t="str">
+      <c r="C1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 6 月"</f>
         <v>2021 年 6 月</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4773,13 +4851,13 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>5</v>
@@ -4820,18 +4898,18 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -4842,47 +4920,47 @@
     </row>
     <row r="7" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="G7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="12"/>
@@ -4923,18 +5001,18 @@
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -4945,47 +5023,47 @@
     </row>
     <row r="11" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="H11" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="35"/>
       <c r="D12" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="G12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>38</v>
-      </c>
       <c r="H12" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="12"/>
@@ -5027,28 +5105,30 @@
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="44" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -5059,13 +5139,15 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="35"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -5110,13 +5192,13 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -5132,23 +5214,23 @@
         <f ca="1"/>
         <v>44382</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5208,12 +5290,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 7 月"</f>
         <v>2021 年 7 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5465,23 +5547,23 @@
         <f ca="1"/>
         <v>44410</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5541,12 +5623,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 8 月"</f>
         <v>2021 年 8 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5798,23 +5880,23 @@
         <f ca="1"/>
         <v>44445</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5874,12 +5956,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="44" t="str">
         <f ca="1">CalendarYear&amp;" 年"&amp;" 9 月"</f>
         <v>2021 年 9 月</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6131,23 +6213,23 @@
         <f ca="1"/>
         <v>44473</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/開発演習スケジュール.xlsx
+++ b/documents/開発演習スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-4\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6C3DF-3975-4EEC-9584-C276941941CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56595E6-D24D-4121-B30D-0408BD82658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="540" windowWidth="10830" windowHeight="9720" tabRatio="788" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 月" sheetId="14" r:id="rId1"/>
@@ -4755,8 +4755,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
